--- a/database/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/database/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\Aircraft-Performance\database\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4DE9A-E8E1-486B-AB06-7D43D2478022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC574703-2CAB-4655-949B-C5B69D48011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -619,13 +619,13 @@
     <t>A340-500</t>
   </si>
   <si>
-    <t>De Havilland</t>
-  </si>
-  <si>
     <t>Comet 4</t>
   </si>
   <si>
     <t>Comet 1</t>
+  </si>
+  <si>
+    <t>de Havilland</t>
   </si>
 </sst>
 </file>
@@ -3665,8 +3665,8 @@
   <dimension ref="A1:P191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -10758,10 +10758,10 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="27" t="s">
         <v>187</v>
-      </c>
-      <c r="B190" s="27" t="s">
-        <v>188</v>
       </c>
       <c r="C190" s="3">
         <v>1958</v>
@@ -10781,10 +10781,10 @@
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C191" s="3">
         <v>1952</v>

--- a/database/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/database/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\Aircraft-Performance\database\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC574703-2CAB-4655-949B-C5B69D48011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB363FC-46B2-4294-AF2A-B84761F96CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -3665,8 +3665,8 @@
   <dimension ref="A1:P191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>

--- a/database/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/database/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\Aircraft-Performance\database\rawdata\aircraftproperties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/Aircraft-Performance/database/rawdata/aircraftproperties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB363FC-46B2-4294-AF2A-B84761F96CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D7C38-FF10-1A47-8110-41B00D36C1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,10 +713,12 @@
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1096,28 +1098,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="143" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.31640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.6796875" customWidth="1"/>
-    <col min="7" max="7" width="19.2265625" customWidth="1"/>
-    <col min="8" max="10" width="16.1328125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="10" width="16.1640625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="14" width="15.6796875" customWidth="1"/>
-    <col min="15" max="16" width="19.26953125" customWidth="1"/>
+    <col min="12" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="16" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1174,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.4" hidden="1" customHeight="1">
+    <row r="7" spans="1:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.4" hidden="1" customHeight="1">
+    <row r="8" spans="1:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.4" hidden="1" customHeight="1">
+    <row r="12" spans="1:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.4" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.4" hidden="1" customHeight="1">
+    <row r="15" spans="1:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.4" hidden="1" customHeight="1">
+    <row r="17" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.4" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2763,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2784,7 +2785,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="1:18" hidden="1">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2812,7 +2813,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2877,7 +2878,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2947,7 +2948,7 @@
       <c r="N43" s="16"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:18" hidden="1">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2968,7 +2969,7 @@
       <c r="N44" s="16"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +3045,7 @@
       <c r="N46" s="16"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="N48" s="16"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="1:18" hidden="1">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="N49" s="16"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3197,7 @@
       <c r="J51" s="12"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:18" hidden="1">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3216,7 @@
       <c r="J52" s="12"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:18" hidden="1">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -3234,7 +3235,7 @@
       <c r="J53" s="12"/>
       <c r="P53" s="13"/>
     </row>
-    <row r="54" spans="1:18" hidden="1">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3253,7 +3254,7 @@
       <c r="J54" s="12"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="1:18" hidden="1">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="J55" s="12"/>
       <c r="P55" s="13"/>
     </row>
-    <row r="56" spans="1:18" hidden="1">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -3291,7 +3292,7 @@
       <c r="J56" s="12"/>
       <c r="P56" s="13"/>
     </row>
-    <row r="57" spans="1:18" hidden="1">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -3310,7 +3311,7 @@
       <c r="J57" s="12"/>
       <c r="P57" s="13"/>
     </row>
-    <row r="58" spans="1:18" hidden="1">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3337,7 +3338,7 @@
       </c>
       <c r="P58" s="13"/>
     </row>
-    <row r="59" spans="1:18" hidden="1">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3362,7 @@
       </c>
       <c r="P59" s="13"/>
     </row>
-    <row r="60" spans="1:18" hidden="1">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3380,7 +3381,7 @@
       <c r="J60" s="12"/>
       <c r="P60" s="13"/>
     </row>
-    <row r="61" spans="1:18" hidden="1">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -3399,7 +3400,7 @@
       <c r="J61" s="12"/>
       <c r="P61" s="13"/>
     </row>
-    <row r="62" spans="1:18" hidden="1">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3418,7 +3419,7 @@
       <c r="J62" s="12"/>
       <c r="P62" s="13"/>
     </row>
-    <row r="63" spans="1:18" hidden="1">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3442,7 +3443,7 @@
       </c>
       <c r="P63" s="13"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3508,7 +3509,7 @@
       <c r="G65" s="2"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:14" hidden="1">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3526,7 +3527,7 @@
       <c r="G66" s="2"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:14" hidden="1">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +3553,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="1:14" hidden="1">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>95</v>
       </c>
@@ -3561,14 +3562,14 @@
       <c r="G68" s="2"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -3578,7 +3579,7 @@
       <c r="G70" s="2"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -3595,7 +3596,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -3611,7 +3612,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>0.41126000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
@@ -3648,13 +3649,7 @@
       <c r="G74" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J68" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3664,26 +3659,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
   <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.2265625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="19" style="15" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" customWidth="1"/>
-    <col min="12" max="14" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="14" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3728,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.25" customHeight="1">
+    <row r="2" spans="1:16" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3768,7 +3763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.25" customHeight="1">
+    <row r="3" spans="1:16" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +3798,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.25" customHeight="1">
+    <row r="4" spans="1:16" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3838,7 +3833,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.4" customHeight="1">
+    <row r="5" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3873,7 +3868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.4" customHeight="1">
+    <row r="6" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3908,7 +3903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.4" customHeight="1">
+    <row r="7" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3943,7 +3938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.4" customHeight="1">
+    <row r="8" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3978,7 +3973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.4" customHeight="1">
+    <row r="9" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4013,7 +4008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.4" customHeight="1">
+    <row r="10" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4048,7 +4043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.4" customHeight="1">
+    <row r="11" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4083,7 +4078,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.4" customHeight="1">
+    <row r="12" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.4" customHeight="1">
+    <row r="13" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4153,7 +4148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.4" customHeight="1">
+    <row r="14" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.4" customHeight="1">
+    <row r="15" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4223,7 +4218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.4" customHeight="1">
+    <row r="16" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4258,7 +4253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.4" customHeight="1">
+    <row r="17" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -4293,7 +4288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.4" customHeight="1">
+    <row r="18" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4328,7 +4323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.4" customHeight="1">
+    <row r="19" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4363,7 +4358,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.4" customHeight="1">
+    <row r="20" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4398,7 +4393,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.4" customHeight="1">
+    <row r="21" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4433,7 +4428,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.4" customHeight="1">
+    <row r="22" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4503,7 +4498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4538,7 +4533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4608,7 +4603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4643,7 +4638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -4684,7 +4679,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4719,7 +4714,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4754,7 +4749,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4789,7 +4784,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -4824,7 +4819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -4859,7 +4854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4929,7 +4924,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4999,7 +4994,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5038,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5084,7 +5079,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -5125,7 +5120,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -5166,7 +5161,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -5207,7 +5202,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5245,7 +5240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -5283,7 +5278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5362,7 +5357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5397,7 +5392,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5432,7 +5427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5543,7 +5538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -5581,7 +5576,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -5619,7 +5614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -5657,7 +5652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -5695,7 +5690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -5733,7 +5728,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -5809,7 +5804,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -5847,7 +5842,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -5923,7 +5918,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -5961,7 +5956,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -6038,7 +6033,7 @@
       </c>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -6077,7 +6072,7 @@
       </c>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -6113,7 +6108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -6148,7 +6143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -6183,7 +6178,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -6218,7 +6213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -6253,7 +6248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -6288,7 +6283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -6326,7 +6321,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -6364,7 +6359,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -6402,7 +6397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="8" customFormat="1">
+    <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>67</v>
       </c>
@@ -6433,7 +6428,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -6468,7 +6463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -6503,7 +6498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -6582,7 +6577,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -6617,7 +6612,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="8" customFormat="1">
+    <row r="82" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>13</v>
       </c>
@@ -6695,7 +6690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -6730,7 +6725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>76</v>
       </c>
@@ -6765,7 +6760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -6800,7 +6795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -6835,7 +6830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +6865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -6905,7 +6900,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6940,7 +6935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6975,7 +6970,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -7010,7 +7005,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -7048,7 +7043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -7086,7 +7081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -7124,7 +7119,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -7162,7 +7157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -7200,7 +7195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -7276,7 +7271,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -7314,7 +7309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -7352,7 +7347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -7390,7 +7385,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -7428,7 +7423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -7504,7 +7499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -7542,7 +7537,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -7580,7 +7575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -7618,7 +7613,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -7659,7 +7654,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -7700,7 +7695,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -7741,7 +7736,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -7782,7 +7777,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -7823,7 +7818,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -7864,7 +7859,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -7905,7 +7900,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -7987,7 +7982,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -8028,7 +8023,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -8069,7 +8064,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -8110,7 +8105,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -8154,7 +8149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -8198,7 +8193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -8242,7 +8237,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8280,7 +8275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8318,7 +8313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8356,7 +8351,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8394,7 +8389,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8432,7 +8427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -8470,7 +8465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -8508,7 +8503,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -8546,7 +8541,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -8584,7 +8579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -8622,7 +8617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -8660,7 +8655,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -8698,7 +8693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -8736,7 +8731,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -8774,7 +8769,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -8812,7 +8807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -8850,7 +8845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -8888,7 +8883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -8926,7 +8921,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -8964,7 +8959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -9002,7 +8997,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -9040,7 +9035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -9078,7 +9073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -9116,7 +9111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -9154,7 +9149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -9192,7 +9187,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -9230,7 +9225,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -9268,7 +9263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -9306,7 +9301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -9342,7 +9337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -9378,7 +9373,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -9416,7 +9411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -9454,7 +9449,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -9492,7 +9487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -9530,7 +9525,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -9568,7 +9563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -9606,7 +9601,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -9644,7 +9639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -9682,7 +9677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -9720,7 +9715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -9764,7 +9759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -9808,7 +9803,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -9852,7 +9847,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -9890,7 +9885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>28</v>
       </c>
@@ -9929,7 +9924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -9967,7 +9962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>44</v>
       </c>
@@ -10005,7 +10000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -10043,7 +10038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -10081,7 +10076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -10119,7 +10114,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -10157,7 +10152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -10195,7 +10190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -10233,7 +10228,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -10269,7 +10264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>53</v>
       </c>
@@ -10307,7 +10302,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -10345,7 +10340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -10379,7 +10374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -10413,7 +10408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -10451,7 +10446,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -10489,7 +10484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -10527,7 +10522,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -10565,7 +10560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -10601,7 +10596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -10637,7 +10632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -10669,7 +10664,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -10704,7 +10699,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>168</v>
       </c>
@@ -10739,7 +10734,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>168</v>
       </c>
@@ -10756,7 +10751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -10779,7 +10774,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -10839,16 +10834,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECAC9EA-371C-4CE1-944C-9426A2E307A9}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -10862,7 +10857,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>77</v>
       </c>
@@ -10873,7 +10868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
@@ -10884,7 +10879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
@@ -10895,7 +10890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
@@ -10906,7 +10901,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -10917,7 +10912,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -10928,7 +10923,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -10939,7 +10934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -10950,7 +10945,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -10961,7 +10956,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
@@ -10972,7 +10967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -10983,7 +10978,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -10994,7 +10989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -11005,7 +11000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
@@ -11016,7 +11011,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>142</v>
       </c>
@@ -11027,7 +11022,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>75</v>
       </c>
@@ -11038,7 +11033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -11049,7 +11044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -11060,7 +11055,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -11071,7 +11066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -11082,7 +11077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
@@ -11093,7 +11088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
@@ -11104,7 +11099,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -11115,7 +11110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -11126,7 +11121,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>94</v>
       </c>
@@ -11137,7 +11132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -11148,7 +11143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>78</v>
       </c>
@@ -11159,7 +11154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -11170,7 +11165,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>169</v>
       </c>
@@ -11181,7 +11176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -11192,7 +11187,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>162</v>
       </c>
@@ -11203,7 +11198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -11214,7 +11209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>155</v>
       </c>
@@ -11225,7 +11220,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>72</v>
       </c>
@@ -11236,7 +11231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
@@ -11247,7 +11242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>149</v>
       </c>
@@ -11258,7 +11253,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>152</v>
       </c>
@@ -11269,7 +11264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>151</v>
       </c>
@@ -11280,7 +11275,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>150</v>
       </c>
@@ -11291,7 +11286,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -11302,7 +11297,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>153</v>
       </c>
@@ -11313,7 +11308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>156</v>
       </c>
@@ -11324,7 +11319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>159</v>
       </c>
@@ -11335,7 +11330,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>157</v>
       </c>
@@ -11346,7 +11341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>158</v>
       </c>
@@ -11357,7 +11352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>35</v>
       </c>
@@ -11368,7 +11363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>42</v>
       </c>
@@ -11379,7 +11374,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -11390,7 +11385,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>147</v>
       </c>
@@ -11401,7 +11396,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>146</v>
       </c>
@@ -11412,7 +11407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>145</v>
       </c>
@@ -11423,7 +11418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>161</v>
       </c>
@@ -11434,7 +11429,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>144</v>
       </c>
@@ -11445,7 +11440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>160</v>
       </c>
@@ -11456,7 +11451,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>163</v>
       </c>
@@ -11467,7 +11462,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -11478,7 +11473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>41</v>
       </c>
@@ -11489,7 +11484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
@@ -11500,7 +11495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -11511,7 +11506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>56</v>
       </c>
@@ -11522,7 +11517,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>38</v>
       </c>
@@ -11533,7 +11528,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>66</v>
       </c>
@@ -11544,7 +11539,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>148</v>
       </c>
@@ -11555,7 +11550,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>164</v>
       </c>
@@ -11566,7 +11561,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>68</v>
       </c>
@@ -11577,7 +11572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>29</v>
       </c>
@@ -11588,7 +11583,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>143</v>
       </c>
@@ -11599,7 +11594,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>55</v>
       </c>
@@ -11610,7 +11605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>50</v>
       </c>
@@ -11621,7 +11616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>34</v>
       </c>
@@ -11632,7 +11627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
         <v>180</v>
       </c>
